--- a/mf-intelligence/data/processed/quant/quant_Value_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Value_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,19 +492,19 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>9.539166</v>
+      </c>
+      <c r="E2" t="n">
         <v>9.580310000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.82103</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.396431</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.7592800000000004</v>
+        <v>-0.04114400000000096</v>
       </c>
       <c r="H2" t="n">
-        <v>3.183879000000001</v>
+        <v>0.7181359999999994</v>
       </c>
     </row>
     <row r="3">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>9.300810999999999</v>
+      </c>
+      <c r="E3" t="n">
         <v>8.890637</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.086228</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.079192000000001</v>
-      </c>
       <c r="G3" t="n">
-        <v>-0.1955910000000003</v>
+        <v>0.4101739999999996</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1885550000000009</v>
+        <v>0.2145829999999993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.285857999999999</v>
+        <v>7.712664</v>
       </c>
       <c r="E4" t="n">
-        <v>3.314505</v>
+        <v>7.383763</v>
       </c>
       <c r="F4" t="n">
-        <v>3.600988</v>
+        <v>7.18798</v>
       </c>
       <c r="G4" t="n">
-        <v>4.971352999999999</v>
+        <v>0.3289010000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4.684869999999999</v>
+        <v>0.5246840000000006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.91723</v>
+        <v>7.546295</v>
       </c>
       <c r="E5" t="n">
-        <v>8.028605000000001</v>
+        <v>8.285857999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>8.035861000000001</v>
+        <v>3.314505</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1113750000000007</v>
+        <v>-0.7395629999999995</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1186310000000006</v>
+        <v>4.23179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.383763</v>
+        <v>7.410121</v>
       </c>
       <c r="E6" t="n">
-        <v>7.18798</v>
+        <v>7.91723</v>
       </c>
       <c r="F6" t="n">
-        <v>7.112125</v>
+        <v>8.028605000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1957830000000005</v>
+        <v>-0.5071089999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2716380000000003</v>
+        <v>-0.6184840000000005</v>
       </c>
     </row>
     <row r="7">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>7.163543</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.320955</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2.735111</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.972836</v>
-      </c>
       <c r="G7" t="n">
-        <v>4.585844</v>
+        <v>-0.1574119999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>4.348119</v>
+        <v>4.428432</v>
       </c>
     </row>
     <row r="8">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>5.793722</v>
+      </c>
+      <c r="E8" t="n">
         <v>5.641521</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.684118</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.076973</v>
-      </c>
       <c r="G8" t="n">
-        <v>-0.04259699999999977</v>
+        <v>0.1522009999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4354519999999997</v>
+        <v>0.109604</v>
       </c>
     </row>
     <row r="9">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>3.978877</v>
+      </c>
+      <c r="E9" t="n">
         <v>3.760505</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.738315</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.882977</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.02219000000000015</v>
+        <v>0.218372</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1224719999999997</v>
+        <v>0.2405620000000002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE933K01021</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bajaj Consumer Care Ltd</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.739444</v>
+        <v>3.857052</v>
       </c>
       <c r="E10" t="n">
-        <v>3.811694</v>
+        <v>3.483121</v>
       </c>
       <c r="F10" t="n">
-        <v>3.947823</v>
+        <v>3.528029</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07224999999999993</v>
+        <v>0.3739309999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2083789999999999</v>
+        <v>0.3290229999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.483121</v>
+        <v>2.883411</v>
       </c>
       <c r="E11" t="n">
-        <v>3.528029</v>
+        <v>2.754756</v>
       </c>
       <c r="F11" t="n">
-        <v>3.272063</v>
+        <v>9.316013</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04490799999999995</v>
+        <v>0.1286550000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0.211058</v>
+        <v>-6.432601999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE177F01017</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Kovai Medical Center &amp; Hospital Ltd.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.754756</v>
+        <v>2.125284</v>
       </c>
       <c r="E12" t="n">
-        <v>9.316013</v>
+        <v>2.737368</v>
       </c>
       <c r="F12" t="n">
-        <v>9.659266000000001</v>
+        <v>2.95693</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.561256999999999</v>
+        <v>-0.6120839999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.90451</v>
+        <v>-0.8316459999999997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE177F01017</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kovai Medical Center &amp; Hospital Ltd.</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.737368</v>
+        <v>2.065748</v>
       </c>
       <c r="E13" t="n">
-        <v>2.95693</v>
+        <v>1.953537</v>
       </c>
       <c r="F13" t="n">
-        <v>3.15125</v>
+        <v>1.945007</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2195619999999998</v>
+        <v>0.1122110000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4138820000000001</v>
+        <v>0.1207410000000002</v>
       </c>
     </row>
     <row r="14">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>2.052233</v>
+      </c>
+      <c r="E14" t="n">
         <v>2.000228</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.847762</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.866245</v>
-      </c>
       <c r="G14" t="n">
-        <v>0.152466</v>
+        <v>0.0520050000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0.133983</v>
+        <v>0.2044710000000003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE868B01028</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>NCC Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.953537</v>
+        <v>1.603736</v>
       </c>
       <c r="E15" t="n">
-        <v>1.945007</v>
+        <v>1.619954</v>
       </c>
       <c r="F15" t="n">
-        <v>1.860465</v>
+        <v>1.690582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008530000000000149</v>
+        <v>-0.01621799999999984</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09307200000000004</v>
+        <v>-0.08684599999999998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE868B01028</t>
+          <t>INE548A01028</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCC Ltd</t>
+          <t>HFCL Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.619954</v>
+        <v>1.546887</v>
       </c>
       <c r="E16" t="n">
-        <v>1.690582</v>
+        <v>1.409042</v>
       </c>
       <c r="F16" t="n">
-        <v>2.092355</v>
+        <v>1.424688</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.07062800000000014</v>
+        <v>0.137845</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4724010000000001</v>
+        <v>0.1221989999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE548A01028</t>
+          <t>INE347A01017</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HFCL Limited</t>
+          <t>Mangalam Cement Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.409042</v>
+        <v>1.44772</v>
       </c>
       <c r="E17" t="n">
-        <v>1.424688</v>
+        <v>1.306596</v>
       </c>
       <c r="F17" t="n">
-        <v>1.490929</v>
+        <v>1.173441</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01564600000000005</v>
+        <v>0.1411239999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.08188700000000004</v>
+        <v>0.2742789999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE14LE01019</t>
+          <t>INE949H01023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aditya Birla Lifestyle Brands Limited</t>
+          <t>Man Infraconstruction Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,30 +1004,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.345062</v>
+        <v>1.230851</v>
       </c>
       <c r="E18" t="n">
-        <v>1.340543</v>
+        <v>1.318097</v>
       </c>
       <c r="F18" t="n">
-        <v>1.374417</v>
+        <v>1.290651</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00451899999999994</v>
+        <v>-0.08724600000000016</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.02935500000000002</v>
+        <v>-0.05980000000000008</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE949H01023</t>
+          <t>INE14LE01019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Man Infraconstruction Limited</t>
+          <t>Aditya Birla Lifestyle Brands Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,30 +1036,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.318097</v>
+        <v>1.201118</v>
       </c>
       <c r="E19" t="n">
-        <v>1.290651</v>
+        <v>1.345062</v>
       </c>
       <c r="F19" t="n">
-        <v>1.498089</v>
+        <v>1.340543</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02744600000000008</v>
+        <v>-0.1439440000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1799919999999999</v>
+        <v>-0.1394250000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE347A01017</t>
+          <t>INE0U4701011</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mangalam Cement Limited</t>
+          <t>Digitide Solutions Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,30 +1068,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.306596</v>
+        <v>1.086307</v>
       </c>
       <c r="E20" t="n">
-        <v>1.173441</v>
+        <v>1.153297</v>
       </c>
       <c r="F20" t="n">
-        <v>1.289392</v>
+        <v>1.213112</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1331550000000001</v>
+        <v>-0.06699000000000011</v>
       </c>
       <c r="H20" t="n">
-        <v>0.017204</v>
+        <v>-0.1268050000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE095N01031</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>National Building Construction Corp</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,30 +1100,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.153297</v>
+        <v>0.7053970000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>1.213112</v>
+        <v>0.801015</v>
       </c>
       <c r="F21" t="n">
-        <v>1.350438</v>
+        <v>0.749797</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.05981499999999995</v>
+        <v>-0.09561799999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.197141</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE095N01031</t>
+          <t>INE942C01045</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>National Building Construction Corp</t>
+          <t>Gujarat Themis Biosyn Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,30 +1132,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.801015</v>
+        <v>0.532569</v>
       </c>
       <c r="E22" t="n">
-        <v>0.749797</v>
+        <v>0.671127</v>
       </c>
       <c r="F22" t="n">
-        <v>0.753629</v>
+        <v>0.605021</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05121799999999999</v>
+        <v>-0.1385580000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04738600000000004</v>
+        <v>-0.07245200000000007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE01TY01017</t>
+          <t>INE351A01035</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Canara HSBC Life Insurance Company Ltd</t>
+          <t>Unichem Laboratories Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,30 +1164,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.786067</v>
+        <v>0.353323</v>
       </c>
       <c r="E23" t="n">
-        <v>0.637611</v>
+        <v>0.384464</v>
       </c>
       <c r="F23" t="n">
-        <v>0.602359</v>
+        <v>0.397052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1484559999999999</v>
+        <v>-0.03114099999999997</v>
       </c>
       <c r="H23" t="n">
-        <v>0.183708</v>
+        <v>-0.04372900000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE942C01045</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gujarat Themis Biosyn Ltd</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1196,30 +1196,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.671127</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.605021</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.689644</v>
+        <v>0.063677</v>
       </c>
       <c r="G24" t="n">
-        <v>0.066106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.01851700000000001</v>
+        <v>-0.063677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE351A01035</t>
+          <t>INE01TY01017</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Unichem Laboratories Limited</t>
+          <t>Canara HSBC Life Insurance Company Ltd</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1228,30 +1228,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.384464</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.397052</v>
+        <v>0.786067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.39986</v>
+        <v>0.637611</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01258800000000004</v>
+        <v>-0.786067</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01539600000000002</v>
+        <v>-0.637611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1263,27 +1263,27 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.063677</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0.650393</v>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="G26" t="n">
-        <v>-0.063677</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-0.650393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE933K01021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Bajaj Consumer Care Ltd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.650393</v>
+        <v>3.739444</v>
       </c>
       <c r="F27" t="n">
-        <v>9.547155</v>
+        <v>3.811694</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.650393</v>
+        <v>-3.739444</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.547155</v>
+        <v>-3.811694</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Value_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Value_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.539166</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.580310000000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.82103</v>
-      </c>
       <c r="G2" t="n">
+        <v>6.396431</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.04114400000000096</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.7181359999999994</v>
+      <c r="I2" t="n">
+        <v>3.142735</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>9.300810999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.890637</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.086228</v>
-      </c>
       <c r="G3" t="n">
+        <v>9.079192000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4101739999999996</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.2145829999999993</v>
+      <c r="I3" t="n">
+        <v>0.2216189999999987</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.712664</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.383763</v>
       </c>
-      <c r="F4" t="n">
-        <v>7.18798</v>
-      </c>
       <c r="G4" t="n">
+        <v>7.112125</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3289010000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.5246840000000006</v>
+      <c r="I4" t="n">
+        <v>0.6005390000000004</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.546295</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.285857999999999</v>
       </c>
-      <c r="F5" t="n">
-        <v>3.314505</v>
-      </c>
       <c r="G5" t="n">
+        <v>3.600988</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.7395629999999995</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.23179</v>
+      <c r="I5" t="n">
+        <v>3.945307</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.410121</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.91723</v>
       </c>
-      <c r="F6" t="n">
-        <v>8.028605000000001</v>
-      </c>
       <c r="G6" t="n">
+        <v>8.035861000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.5071089999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.6184840000000005</v>
+      <c r="I6" t="n">
+        <v>-0.6257400000000004</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>7.163543</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>7.320955</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.735111</v>
-      </c>
       <c r="G7" t="n">
+        <v>2.972836</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.1574119999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.428432</v>
+      <c r="I7" t="n">
+        <v>4.190707</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.793722</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.641521</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.684118</v>
-      </c>
       <c r="G8" t="n">
+        <v>6.076973</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1522009999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.109604</v>
+      <c r="I8" t="n">
+        <v>-0.2832509999999999</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.978877</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.760505</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.738315</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.882977</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.218372</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.2405620000000002</v>
+      <c r="I9" t="n">
+        <v>0.09590000000000032</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.857052</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.483121</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.528029</v>
-      </c>
       <c r="G10" t="n">
+        <v>3.272063</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3739309999999998</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.3290229999999998</v>
+      <c r="I10" t="n">
+        <v>0.5849889999999998</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.883411</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.754756</v>
       </c>
-      <c r="F11" t="n">
-        <v>9.316013</v>
-      </c>
       <c r="G11" t="n">
+        <v>9.659266000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1286550000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>-6.432601999999999</v>
+      <c r="I11" t="n">
+        <v>-6.775855</v>
       </c>
     </row>
     <row r="12">
@@ -811,20 +866,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.125284</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.737368</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.95693</v>
-      </c>
       <c r="G12" t="n">
+        <v>3.15125</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.6120839999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.8316459999999997</v>
+      <c r="I12" t="n">
+        <v>-1.025966</v>
       </c>
     </row>
     <row r="13">
@@ -843,20 +903,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.065748</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.953537</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.945007</v>
-      </c>
       <c r="G13" t="n">
+        <v>1.860465</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1122110000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.1207410000000002</v>
+      <c r="I13" t="n">
+        <v>0.2052830000000001</v>
       </c>
     </row>
     <row r="14">
@@ -875,20 +940,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2.052233</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.000228</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.847762</v>
-      </c>
       <c r="G14" t="n">
+        <v>1.866245</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0520050000000003</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.2044710000000003</v>
+      <c r="I14" t="n">
+        <v>0.1859880000000003</v>
       </c>
     </row>
     <row r="15">
@@ -907,20 +977,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.603736</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.619954</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.690582</v>
-      </c>
       <c r="G15" t="n">
+        <v>2.092355</v>
+      </c>
+      <c r="H15" t="n">
         <v>-0.01621799999999984</v>
       </c>
-      <c r="H15" t="n">
-        <v>-0.08684599999999998</v>
+      <c r="I15" t="n">
+        <v>-0.4886189999999999</v>
       </c>
     </row>
     <row r="16">
@@ -939,20 +1014,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1.546887</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.409042</v>
       </c>
-      <c r="F16" t="n">
-        <v>1.424688</v>
-      </c>
       <c r="G16" t="n">
+        <v>1.490929</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.137845</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.1221989999999999</v>
+      <c r="I16" t="n">
+        <v>0.05595799999999995</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>1.44772</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.306596</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.173441</v>
-      </c>
       <c r="G17" t="n">
+        <v>1.289392</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1411239999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.2742789999999999</v>
+      <c r="I17" t="n">
+        <v>0.1583279999999998</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1088,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>1.230851</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.318097</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.290651</v>
-      </c>
       <c r="G18" t="n">
+        <v>1.498089</v>
+      </c>
+      <c r="H18" t="n">
         <v>-0.08724600000000016</v>
       </c>
-      <c r="H18" t="n">
-        <v>-0.05980000000000008</v>
+      <c r="I18" t="n">
+        <v>-0.2672380000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1035,20 +1125,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>1.201118</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.345062</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.340543</v>
-      </c>
       <c r="G19" t="n">
+        <v>1.374417</v>
+      </c>
+      <c r="H19" t="n">
         <v>-0.1439440000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>-0.1394250000000001</v>
+      <c r="I19" t="n">
+        <v>-0.1732990000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1067,20 +1162,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1.086307</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.153297</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.213112</v>
-      </c>
       <c r="G20" t="n">
+        <v>1.350438</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.06699000000000011</v>
       </c>
-      <c r="H20" t="n">
-        <v>-0.1268050000000001</v>
+      <c r="I20" t="n">
+        <v>-0.2641310000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1099,20 +1199,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>0.7053970000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.801015</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.749797</v>
-      </c>
       <c r="G21" t="n">
+        <v>0.753629</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.09561799999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>-0.0444</v>
+      <c r="I21" t="n">
+        <v>-0.04823199999999994</v>
       </c>
     </row>
     <row r="22">
@@ -1131,20 +1236,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>0.532569</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.671127</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.605021</v>
-      </c>
       <c r="G22" t="n">
+        <v>0.689644</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.1385580000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>-0.07245200000000007</v>
+      <c r="I22" t="n">
+        <v>-0.1570750000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1163,31 +1273,36 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>0.353323</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.384464</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.397052</v>
-      </c>
       <c r="G23" t="n">
+        <v>0.39986</v>
+      </c>
+      <c r="H23" t="n">
         <v>-0.03114099999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>-0.04372900000000002</v>
+      <c r="I23" t="n">
+        <v>-0.046537</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE01TY01017</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Canara HSBC Life Insurance Company Ltd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1195,31 +1310,36 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.063677</v>
+        <v>0.786067</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.602359</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.063677</v>
+        <v>-0.786067</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.602359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE01TY01017</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Canara HSBC Life Insurance Company Ltd</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.786067</v>
-      </c>
       <c r="F25" t="n">
-        <v>0.637611</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.786067</v>
+        <v>9.547155</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.637611</v>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-9.547155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE933K01021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Bajaj Consumer Care Ltd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,52 +1384,25 @@
           <t>quant Value Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.650393</v>
+        <v>3.739444</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.947823</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.650393</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>INE933K01021</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Bajaj Consumer Care Ltd</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>quant Value Fund</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.739444</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.811694</v>
-      </c>
-      <c r="G27" t="n">
         <v>-3.739444</v>
       </c>
-      <c r="H27" t="n">
-        <v>-3.811694</v>
+      <c r="I26" t="n">
+        <v>-3.947823</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Value_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Value_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.539166</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.580310000000001</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6.396431</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.04114400000000096</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.142735</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.300810999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.890637</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>9.079192000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.4101739999999996</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.2216189999999987</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.712664</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.383763</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>7.112125</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.3289010000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.6005390000000004</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.546295</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>8.285857999999999</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>3.600988</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.7395629999999995</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3.945307</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.410121</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.91723</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>8.035861000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.5071089999999998</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.6257400000000004</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>7.163543</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>7.320955</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>2.972836</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.1574119999999999</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>4.190707</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.793722</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.641521</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>6.076973</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.1522009999999998</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-0.2832509999999999</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.978877</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.760505</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.882977</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.218372</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.09590000000000032</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.857052</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.483121</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3.272063</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.3739309999999998</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.5849889999999998</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.883411</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.754756</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>9.659266000000001</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.1286550000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-6.775855</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.125284</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.737368</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>3.15125</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-0.6120839999999999</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-1.025966</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.065748</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1.953537</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1.860465</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.1122110000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.2052830000000001</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.052233</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.000228</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1.866245</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.0520050000000003</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.1859880000000003</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.603736</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.619954</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>2.092355</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>-0.01621799999999984</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>-0.4886189999999999</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Telecom - Services</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.546887</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.409042</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1.490929</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.137845</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.05595799999999995</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.44772</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.306596</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>1.289392</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.1411239999999998</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.1583279999999998</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1.230851</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.318097</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1.498089</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.08724600000000016</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-0.2672380000000001</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.201118</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.345062</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1.374417</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.1439440000000001</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.1732990000000001</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.086307</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.153297</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.350438</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-0.06699000000000011</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.2641310000000001</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.7053970000000001</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.801015</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.753629</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-0.09561799999999998</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.04823199999999994</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.532569</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.671127</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.689644</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.1385580000000001</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-0.1570750000000001</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.353323</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.384464</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.39986</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>-0.03114099999999997</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-0.046537</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.786067</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.602359</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.786067</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>-0.602359</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>9.547155</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-9.547155</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Value Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Value Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3.739444</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>3.947823</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-3.739444</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-3.947823</v>
       </c>
     </row>
